--- a/B站学习进度表.xlsx
+++ b/B站学习进度表.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\giteeProject\mingle08\java-note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67472301-2980-4048-9F05-60DC9567DB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5DB511-1913-42C9-B627-2C1C5C890249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10470" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="docker入门" sheetId="1" r:id="rId1"/>
     <sheet name="dubbo源码" sheetId="2" r:id="rId2"/>
+    <sheet name="dubbo源码2" sheetId="3" r:id="rId3"/>
+    <sheet name="spring源码" sheetId="4" r:id="rId4"/>
+    <sheet name="dubbo源码3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="126">
   <si>
     <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +147,281 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1244y137XF?p=7&amp;spm_id_from=333.337.top_right_bar_window_history.content.click</t>
+  </si>
+  <si>
+    <t>P21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>P41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>P48</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>P54</t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t>P56</t>
+  </si>
+  <si>
+    <t>P57</t>
+  </si>
+  <si>
+    <t>P58</t>
+  </si>
+  <si>
+    <t>P59</t>
+  </si>
+  <si>
+    <t>P60</t>
+  </si>
+  <si>
+    <t>P61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>P63</t>
+  </si>
+  <si>
+    <t>P64</t>
+  </si>
+  <si>
+    <t>P65</t>
+  </si>
+  <si>
+    <t>P66</t>
+  </si>
+  <si>
+    <t>P67</t>
+  </si>
+  <si>
+    <t>P68</t>
+  </si>
+  <si>
+    <t>P69</t>
+  </si>
+  <si>
+    <t>P70</t>
+  </si>
+  <si>
+    <t>P71</t>
+  </si>
+  <si>
+    <t>P72</t>
+  </si>
+  <si>
+    <t>P73</t>
+  </si>
+  <si>
+    <t>P74</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>P76</t>
+  </si>
+  <si>
+    <t>P77</t>
+  </si>
+  <si>
+    <t>P78</t>
+  </si>
+  <si>
+    <t>P79</t>
+  </si>
+  <si>
+    <t>P80</t>
+  </si>
+  <si>
+    <t>P81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P82</t>
+  </si>
+  <si>
+    <t>P83</t>
+  </si>
+  <si>
+    <t>P84</t>
+  </si>
+  <si>
+    <t>P85</t>
+  </si>
+  <si>
+    <t>P86</t>
+  </si>
+  <si>
+    <t>P87</t>
+  </si>
+  <si>
+    <t>P88</t>
+  </si>
+  <si>
+    <t>P89</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>P91</t>
+  </si>
+  <si>
+    <t>P92</t>
+  </si>
+  <si>
+    <t>P93</t>
+  </si>
+  <si>
+    <t>P94</t>
+  </si>
+  <si>
+    <t>P95</t>
+  </si>
+  <si>
+    <t>P96</t>
+  </si>
+  <si>
+    <t>P97</t>
+  </si>
+  <si>
+    <t>P98</t>
+  </si>
+  <si>
+    <t>P99</t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>P101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>P111</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>P115</t>
+  </si>
+  <si>
+    <t>P116</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>P118</t>
+  </si>
+  <si>
+    <t>P119</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1JK4y1m7yV?p=93&amp;spm_id_from=pageDriver</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1AL4y1L7SR?spm_id_from=333.337.search-card.all.click</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1La411k7vg?p=7</t>
   </si>
 </sst>
 </file>
@@ -165,7 +451,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +461,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,12 +507,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -488,7 +812,7 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +822,13 @@
       <c r="C1">
         <v>20220416</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -509,8 +838,13 @@
       <c r="C2">
         <v>20220416</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -520,8 +854,13 @@
       <c r="C3">
         <v>20220416</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -531,8 +870,13 @@
       <c r="C4">
         <v>20220416</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -542,8 +886,13 @@
       <c r="C5">
         <v>20220416</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -553,144 +902,140 @@
       <c r="C6">
         <v>20220416</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -705,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC714E7E-1E9D-41F1-9849-937438DD3C37}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -788,7 +1133,7 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>20220416</v>
+        <v>20220417</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -834,6 +1179,1208 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B3D4F8-D764-4263-8493-86051871FB4C}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5">
+        <v>20220417</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6">
+        <v>20220417</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7">
+        <v>20220417</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8">
+        <v>20220417</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9">
+        <v>20220417</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10">
+        <v>20220417</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11">
+        <v>20220417</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12">
+        <v>20220417</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13">
+        <v>20220417</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="4">
+        <v>20220417</v>
+      </c>
+      <c r="M14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14">
+        <v>20220417</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="4">
+        <v>20220417</v>
+      </c>
+      <c r="M15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="4">
+        <v>20220417</v>
+      </c>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="4">
+        <v>20220417</v>
+      </c>
+      <c r="M17" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="4">
+        <v>20220417</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33583881-47DE-49B2-BC16-A0CA4CBDB25E}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1">
+        <v>20220417</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC98C20-9D5B-48A4-9BCA-073BC69F1767}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/B站学习进度表.xlsx
+++ b/B站学习进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\giteeProject\mingle08\java-note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5DB511-1913-42C9-B627-2C1C5C890249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8492BE-56BE-49F4-B81F-B76513575C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10470" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10470" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="docker入门" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="126">
   <si>
     <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,13 +422,14 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1La411k7vg?p=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +450,14 @@
       <name val="Wingdings 2"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -504,10 +513,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,9 +531,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1192,13 +1204,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B3D4F8-D764-4263-8493-86051871FB4C}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:O5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1224,8 +1237,12 @@
       <c r="P1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1">
+        <v>20220419</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1250,8 +1267,12 @@
       <c r="P2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2">
+        <v>20220419</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1276,8 +1297,12 @@
       <c r="P3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3">
+        <v>20220419</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1302,8 +1327,12 @@
       <c r="P4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4">
+        <v>20220419</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1334,8 +1363,12 @@
       <c r="P5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5">
+        <v>20220419</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1366,8 +1399,12 @@
       <c r="P6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="Q6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6">
+        <v>20220419</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1653,6 +1690,12 @@
       <c r="M15" t="s">
         <v>98</v>
       </c>
+      <c r="N15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15">
+        <v>20220418</v>
+      </c>
       <c r="P15" s="6" t="s">
         <v>118</v>
       </c>
@@ -1683,6 +1726,12 @@
       <c r="M16" t="s">
         <v>99</v>
       </c>
+      <c r="N16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16">
+        <v>20220418</v>
+      </c>
       <c r="P16" s="6" t="s">
         <v>119</v>
       </c>
@@ -1713,6 +1762,12 @@
       <c r="M17" t="s">
         <v>100</v>
       </c>
+      <c r="N17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17">
+        <v>20220418</v>
+      </c>
       <c r="P17" s="6" t="s">
         <v>120</v>
       </c>
@@ -1743,6 +1798,12 @@
       <c r="M18" t="s">
         <v>101</v>
       </c>
+      <c r="N18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18">
+        <v>20220418</v>
+      </c>
       <c r="P18" s="6" t="s">
         <v>121</v>
       </c>
@@ -1769,6 +1830,12 @@
       <c r="M19" t="s">
         <v>102</v>
       </c>
+      <c r="N19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19">
+        <v>20220419</v>
+      </c>
       <c r="P19" s="6" t="s">
         <v>122</v>
       </c>
@@ -1794,6 +1861,12 @@
       <c r="L20" s="4"/>
       <c r="M20" t="s">
         <v>103</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20">
+        <v>20220419</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -1812,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33583881-47DE-49B2-BC16-A0CA4CBDB25E}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
@@ -2247,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC98C20-9D5B-48A4-9BCA-073BC69F1767}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2379,13 +2452,16 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="9" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{F699186D-271D-416F-ACF2-B5492249567E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>